--- a/medicine/Mort/Cimetières_militaires_soviétiques_en_Allemagne/Cimetières_militaires_soviétiques_en_Allemagne.xlsx
+++ b/medicine/Mort/Cimetières_militaires_soviétiques_en_Allemagne/Cimetières_militaires_soviétiques_en_Allemagne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8res_militaires_sovi%C3%A9tiques_en_Allemagne</t>
+          <t>Cimetières_militaires_soviétiques_en_Allemagne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les cimetières militaires soviétiques en Allemagne regroupent, avec les cimetières militaires russes de la Première Guerre mondiale tués sur les territoires allemands, les tombes de 740 000 corps de soldats. Ceux-ci sont représentés en 2009 par la fédération de Russie, malgré le fait que les régimes de ces deux pays (l'Empire russe et l'URSS) n'existent plus et que les frontières sont différentes. Les soldats ou victimes soviétiques du travail forcé dans l'Allemagne du Troisième Reich sont aussi pour un certain nombre issus des anciennes républiques soviétiques aujourd'hui indépendantes.
 Ces cimetières peuvent être de petits carrés communaux ou de grands cimetières comme le Mémorial soviétique du Tiergarten à Berlin ou celui de Treptow dans l'ancien Berlin-Est. Ce sont aussi de petits cimetières de prisonniers de guerre à proximité de camps, comme le cimetière soviétique de Chemnitz ou de grands espaces verts, comme le cimetière des prisonniers de guerre soviétiques au camp de Bergen-Belsen.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8res_militaires_sovi%C3%A9tiques_en_Allemagne</t>
+          <t>Cimetières_militaires_soviétiques_en_Allemagne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Liste des cimetières</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Il y a 850 lieux et cimetières militaires dans l'Est de l'Allemagne qui regroupent les tombes de 420 000 soldats, prisonniers de guerre, etc.
 dont les dépouilles de :
